--- a/Herrera Serrano Mayra Iliana 20212.xlsx
+++ b/Herrera Serrano Mayra Iliana 20212.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="373">
   <si>
     <t>NC</t>
   </si>
@@ -137,6 +137,9 @@
     <t>IXTLA</t>
   </si>
   <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
     <t>DE JESUS</t>
   </si>
   <si>
@@ -197,12 +200,12 @@
     <t>EDGAR DANIEL</t>
   </si>
   <si>
+    <t>JESUS</t>
+  </si>
+  <si>
     <t>EVELYN</t>
   </si>
   <si>
-    <t>JESUS</t>
-  </si>
-  <si>
     <t>ANGEL ALDAHIR</t>
   </si>
   <si>
@@ -260,6 +263,9 @@
     <t>danycraft111@gmail.com</t>
   </si>
   <si>
+    <t>jesushernandezsarmiento108@gmail.com</t>
+  </si>
+  <si>
     <t>evelynldj@gmail.com</t>
   </si>
   <si>
@@ -329,6 +335,9 @@
     <t>2721859278</t>
   </si>
   <si>
+    <t>2722146369</t>
+  </si>
+  <si>
     <t>2721972074</t>
   </si>
   <si>
@@ -426,6 +435,9 @@
   </si>
   <si>
     <t>FRANCISCO JAVIER HERNANDEZ VASQUEZ</t>
+  </si>
+  <si>
+    <t>JORGE HERNÁNDEZ ATLAHUA</t>
   </si>
   <si>
     <t>MALDONADO LÓPEZ TETLA</t>
@@ -1479,7 +1491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1540,22 +1552,22 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="J2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1572,22 +1584,22 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="J3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1604,25 +1616,25 @@
         <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I4" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="J4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -1639,25 +1651,25 @@
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I5" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="J5" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1674,25 +1686,25 @@
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1709,25 +1721,25 @@
         <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -1744,22 +1756,22 @@
         <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I8" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="J8" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1776,22 +1788,22 @@
         <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H9" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I9" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="J9" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1808,25 +1820,25 @@
         <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H10" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I10" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="J10" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1843,19 +1855,19 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H11" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1863,133 +1875,133 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>20330051920347</v>
+        <v>20330051920346</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s">
-        <v>104</v>
+        <v>106</v>
+      </c>
+      <c r="G12" t="s">
+        <v>106</v>
       </c>
       <c r="H12" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I12" t="s">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="J12" t="s">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>20330051920348</v>
+        <v>20330051920347</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F13" t="s">
-        <v>105</v>
-      </c>
-      <c r="G13" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H13" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I13" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J13" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>20330051920349</v>
+        <v>20330051920348</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F14" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="G14" t="s">
+        <v>124</v>
       </c>
       <c r="H14" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I14" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="J14" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>20330051920350</v>
+        <v>20330051920349</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
         <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I15" t="s">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="J15" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1997,45 +2009,45 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>20330051920352</v>
+        <v>20330051920350</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
         <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G16" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H16" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I16" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="J16" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>20330051920353</v>
+        <v>20330051920352</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>44</v>
@@ -2044,33 +2056,33 @@
         <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F17" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H17" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I17" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="J17" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>20330051920354</v>
+        <v>20330051920353</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>45</v>
@@ -2079,57 +2091,57 @@
         <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F18" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G18" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="H18" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I18" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J18" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>20330051920355</v>
+        <v>20330051920354</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F19" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G19" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="H19" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I19" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J19" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -2137,77 +2149,80 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>20330051920382</v>
+        <v>20330051920355</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G20" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="H20" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I20" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J20" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>19330050470596</v>
+        <v>20330051920382</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F21" t="s">
-        <v>113</v>
+        <v>115</v>
+      </c>
+      <c r="G21" t="s">
+        <v>115</v>
       </c>
       <c r="H21" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I21" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J21" t="s">
-        <v>113</v>
+        <v>188</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>20330051920356</v>
+        <v>19330050470596</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
         <v>48</v>
@@ -2216,19 +2231,19 @@
         <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H22" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I22" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J22" t="s">
-        <v>185</v>
+        <v>116</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -2236,10 +2251,10 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>20330051920357</v>
+        <v>20330051920356</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
         <v>49</v>
@@ -2248,59 +2263,91 @@
         <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F23" t="s">
-        <v>115</v>
-      </c>
-      <c r="G23" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H23" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I23" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J23" t="s">
-        <v>115</v>
+        <v>189</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>20330051920383</v>
+        <v>20330051920357</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
         <v>70</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F24" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G24" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H24" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="I24" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J24" t="s">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="K24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>20330051920383</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" t="s">
+        <v>129</v>
+      </c>
+      <c r="H25" t="s">
+        <v>153</v>
+      </c>
+      <c r="I25" t="s">
+        <v>173</v>
+      </c>
+      <c r="J25" t="s">
+        <v>190</v>
+      </c>
+      <c r="K25">
         <v>1</v>
       </c>
     </row>
@@ -2366,28 +2413,28 @@
         <v>19330051920223</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="J2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -2398,31 +2445,31 @@
         <v>19330051920430</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D3" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E3" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G3" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H3" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="I3" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="J3" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -2433,31 +2480,31 @@
         <v>19330051920225</v>
       </c>
       <c r="B4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E4" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F4" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G4" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H4" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="I4" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="J4" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -2468,28 +2515,31 @@
         <v>19330051920226</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C5" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D5" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E5" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F5" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="H5" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="I5" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="J5" t="s">
-        <v>349</v>
+        <v>353</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2497,31 +2547,31 @@
         <v>19330051920227</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E6" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F6" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G6" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H6" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="I6" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="J6" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -2532,31 +2582,31 @@
         <v>19330051920229</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="G7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="I7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="J7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -2567,31 +2617,31 @@
         <v>19330051920230</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C8" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D8" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E8" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F8" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G8" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="H8" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="I8" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="J8" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -2602,31 +2652,31 @@
         <v>19330051920231</v>
       </c>
       <c r="B9" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C9" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D9" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E9" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H9" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="I9" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="J9" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -2637,31 +2687,31 @@
         <v>19330051920232</v>
       </c>
       <c r="B10" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C10" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D10" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E10" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F10" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G10" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H10" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="I10" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="J10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -2672,31 +2722,31 @@
         <v>19330051920233</v>
       </c>
       <c r="B11" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C11" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D11" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E11" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F11" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="G11" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="H11" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="I11" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="J11" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -2707,31 +2757,31 @@
         <v>19330051920234</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C12" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D12" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E12" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F12" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G12" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="H12" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="I12" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="J12" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -2745,25 +2795,25 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D13" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E13" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F13" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="G13" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H13" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="J13" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -2774,31 +2824,31 @@
         <v>19330051920235</v>
       </c>
       <c r="B14" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E14" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F14" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G14" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="H14" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="I14" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="J14" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -2809,28 +2859,28 @@
         <v>19330051920236</v>
       </c>
       <c r="B15" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E15" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F15" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="H15" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="I15" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J15" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -2841,31 +2891,31 @@
         <v>19330051920237</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C16" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D16" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E16" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F16" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G16" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H16" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="I16" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="J16" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -2876,31 +2926,31 @@
         <v>19330051920228</v>
       </c>
       <c r="B17" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C17" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D17" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E17" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F17" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G17" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="H17" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="I17" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="J17" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -2911,31 +2961,31 @@
         <v>19330051420227</v>
       </c>
       <c r="B18" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C18" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D18" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E18" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F18" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G18" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H18" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="I18" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="J18" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2946,28 +2996,28 @@
         <v>19330051920404</v>
       </c>
       <c r="B19" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C19" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D19" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E19" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F19" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H19" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="I19" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="J19" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2978,31 +3028,31 @@
         <v>19330051920240</v>
       </c>
       <c r="B20" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C20" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D20" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E20" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F20" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="G20" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H20" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I20" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="J20" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -3013,31 +3063,31 @@
         <v>19330051920239</v>
       </c>
       <c r="B21" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C21" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D21" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E21" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F21" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G21" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="H21" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="I21" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="J21" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -3054,25 +3104,25 @@
         <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E22" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F22" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G22" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="H22" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="I22" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="J22" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -3083,28 +3133,28 @@
         <v>19330051920243</v>
       </c>
       <c r="B23" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C23" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D23" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E23" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F23" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H23" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="I23" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="J23" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -3115,28 +3165,28 @@
         <v>19330051920244</v>
       </c>
       <c r="B24" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C24" t="s">
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E24" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F24" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G24" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="H24" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="J24" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -3150,25 +3200,25 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D25" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E25" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F25" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H25" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="I25" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="J25" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="K25">
         <v>2</v>

--- a/Herrera Serrano Mayra Iliana 20212.xlsx
+++ b/Herrera Serrano Mayra Iliana 20212.xlsx
@@ -1870,7 +1870,7 @@
         <v>139</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:11">
